--- a/Code/Results/Cases/Case_0_244/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_244/res_line/loading_percent.xlsx
@@ -424,25 +424,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>8.168343400725428</v>
+        <v>8.338680776672632</v>
       </c>
       <c r="D2">
-        <v>3.650081356059461</v>
+        <v>5.218470269711807</v>
       </c>
       <c r="E2">
-        <v>19.96021482709375</v>
+        <v>13.24567078061751</v>
       </c>
       <c r="F2">
-        <v>26.02649851461366</v>
+        <v>27.62804914065313</v>
       </c>
       <c r="G2">
-        <v>39.30119612013067</v>
+        <v>34.84086742476234</v>
       </c>
       <c r="H2">
-        <v>9.606835508697319</v>
+        <v>15.54262918657586</v>
       </c>
       <c r="I2">
-        <v>17.13864167801804</v>
+        <v>23.90876985758839</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,10 +451,10 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>14.3574186130521</v>
+        <v>9.798203811002125</v>
       </c>
       <c r="M2">
-        <v>101.3631781859015</v>
+        <v>59.49720345784911</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -471,25 +471,25 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>7.51853810657955</v>
+        <v>8.291255343840522</v>
       </c>
       <c r="D3">
-        <v>3.11713443149654</v>
+        <v>5.321346513211649</v>
       </c>
       <c r="E3">
-        <v>18.19309408585317</v>
+        <v>12.91890434566484</v>
       </c>
       <c r="F3">
-        <v>22.95853740676061</v>
+        <v>27.95247333358189</v>
       </c>
       <c r="G3">
-        <v>34.25123300385584</v>
+        <v>35.33738637258423</v>
       </c>
       <c r="H3">
-        <v>8.39031996212924</v>
+        <v>15.75799061344303</v>
       </c>
       <c r="I3">
-        <v>14.57519240893843</v>
+        <v>24.37116412154704</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>13.10791335970463</v>
+        <v>9.642830058159744</v>
       </c>
       <c r="M3">
-        <v>93.33806266503224</v>
+        <v>56.11990664958039</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -518,25 +518,25 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>7.126530050458205</v>
+        <v>8.264461894601629</v>
       </c>
       <c r="D4">
-        <v>2.80928813674278</v>
+        <v>5.386888881226631</v>
       </c>
       <c r="E4">
-        <v>17.12007951362294</v>
+        <v>12.719136007257</v>
       </c>
       <c r="F4">
-        <v>21.20803621965024</v>
+        <v>28.17623514624267</v>
       </c>
       <c r="G4">
-        <v>31.39696780171328</v>
+        <v>35.68616849880728</v>
       </c>
       <c r="H4">
-        <v>7.718283554518313</v>
+        <v>15.89878886335917</v>
       </c>
       <c r="I4">
-        <v>13.13309215577788</v>
+        <v>24.67223097884669</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,10 +545,10 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>12.34707091556832</v>
+        <v>9.549971847505226</v>
       </c>
       <c r="M4">
-        <v>88.35667393741124</v>
+        <v>53.93329370532977</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -565,25 +565,25 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>7.000944831908072</v>
+        <v>8.254133057862607</v>
       </c>
       <c r="D5">
-        <v>2.68729691173253</v>
+        <v>5.414197553285003</v>
       </c>
       <c r="E5">
-        <v>16.68240802054082</v>
+        <v>12.63806245967591</v>
       </c>
       <c r="F5">
-        <v>20.52286911203347</v>
+        <v>28.273408250555</v>
       </c>
       <c r="G5">
-        <v>30.28719858272956</v>
+        <v>35.83890097609485</v>
       </c>
       <c r="H5">
-        <v>7.642685507038783</v>
+        <v>15.95828536751692</v>
       </c>
       <c r="I5">
-        <v>12.57461720153702</v>
+        <v>24.79914838591204</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,10 +592,10 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>12.03622345417279</v>
+        <v>9.512809553990332</v>
       </c>
       <c r="M5">
-        <v>86.30211540922093</v>
+        <v>53.0141374030155</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -612,25 +612,25 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6.983180143936464</v>
+        <v>8.252453710482213</v>
       </c>
       <c r="D6">
-        <v>2.66721636080269</v>
+        <v>5.418768421224114</v>
       </c>
       <c r="E6">
-        <v>16.6096282049091</v>
+        <v>12.62462386967004</v>
       </c>
       <c r="F6">
-        <v>20.41068897644275</v>
+        <v>28.28990004140089</v>
       </c>
       <c r="G6">
-        <v>30.10597522942719</v>
+        <v>35.86488966937095</v>
       </c>
       <c r="H6">
-        <v>7.631623704900139</v>
+        <v>15.96829181511723</v>
       </c>
       <c r="I6">
-        <v>12.48357827199208</v>
+        <v>24.82047610748661</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,10 +639,10 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>11.98450290154437</v>
+        <v>9.506680870410172</v>
       </c>
       <c r="M6">
-        <v>85.9592110155325</v>
+        <v>52.8598261499986</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>7.124382255239081</v>
+        <v>8.26432020256448</v>
       </c>
       <c r="D7">
-        <v>2.807630453815388</v>
+        <v>5.387254744605055</v>
       </c>
       <c r="E7">
-        <v>17.11418231798488</v>
+        <v>12.7180411142318</v>
       </c>
       <c r="F7">
-        <v>21.19868699691757</v>
+        <v>28.17752165524932</v>
       </c>
       <c r="G7">
-        <v>31.38179317204845</v>
+        <v>35.68818595479057</v>
       </c>
       <c r="H7">
-        <v>7.717161624383852</v>
+        <v>15.89958271300986</v>
       </c>
       <c r="I7">
-        <v>13.12544553245671</v>
+        <v>24.67392560865132</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,10 +686,10 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>12.34288457730488</v>
+        <v>9.54946786682463</v>
       </c>
       <c r="M7">
-        <v>88.32907720127125</v>
+        <v>53.92101092238529</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>7.941968091555536</v>
+        <v>8.321848774512596</v>
       </c>
       <c r="D8">
-        <v>3.461275383255897</v>
+        <v>5.25345012256606</v>
       </c>
       <c r="E8">
-        <v>19.3459495408543</v>
+        <v>13.13288952245017</v>
       </c>
       <c r="F8">
-        <v>24.93691196495047</v>
+        <v>27.73469741540586</v>
       </c>
       <c r="G8">
-        <v>37.50205218268496</v>
+        <v>35.00268220307039</v>
       </c>
       <c r="H8">
-        <v>9.171560498405775</v>
+        <v>15.61508709806954</v>
       </c>
       <c r="I8">
-        <v>16.22408822424005</v>
+        <v>24.06459050756882</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,10 +733,10 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>13.92354902755019</v>
+        <v>9.74412691587964</v>
       </c>
       <c r="M8">
-        <v>98.59941187625211</v>
+        <v>58.35630826692699</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -753,25 +753,25 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>9.696244007660482</v>
+        <v>8.4528879681798</v>
       </c>
       <c r="D9">
-        <v>5.005201008748269</v>
+        <v>5.009822844477774</v>
       </c>
       <c r="E9">
-        <v>24.08018759484559</v>
+        <v>13.94847913057338</v>
       </c>
       <c r="F9">
-        <v>33.79123669277463</v>
+        <v>27.06989733724298</v>
       </c>
       <c r="G9">
-        <v>52.24725204655807</v>
+        <v>34.02720721065016</v>
       </c>
       <c r="H9">
-        <v>12.77528920412987</v>
+        <v>15.12677457779945</v>
       </c>
       <c r="I9">
-        <v>23.74888567986905</v>
+        <v>23.00992177172587</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,10 +780,10 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>17.25553115936563</v>
+        <v>10.14429895073718</v>
       </c>
       <c r="M9">
-        <v>119.2034035240271</v>
+        <v>66.1485758021221</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -800,25 +800,25 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>11.41593710200259</v>
+        <v>8.559946473421203</v>
       </c>
       <c r="D10">
-        <v>6.662759302870206</v>
+        <v>4.842165638203094</v>
       </c>
       <c r="E10">
-        <v>28.67205348167271</v>
+        <v>14.54297155420957</v>
       </c>
       <c r="F10">
-        <v>42.89713212685511</v>
+        <v>26.71775748852273</v>
       </c>
       <c r="G10">
-        <v>67.63555315903201</v>
+        <v>33.563691794396</v>
       </c>
       <c r="H10">
-        <v>16.58296582039175</v>
+        <v>14.81283284822952</v>
       </c>
       <c r="I10">
-        <v>31.67666817767966</v>
+        <v>22.32685632121979</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,10 +827,10 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>20.46136268948252</v>
+        <v>10.44727233331916</v>
       </c>
       <c r="M10">
-        <v>137.5489125037101</v>
+        <v>71.31408504220791</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -847,25 +847,25 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>12.70442605960773</v>
+        <v>8.610916070264178</v>
       </c>
       <c r="D11">
-        <v>7.950536585686634</v>
+        <v>4.76834317184181</v>
       </c>
       <c r="E11">
-        <v>32.0669228298116</v>
+        <v>14.81127701971433</v>
       </c>
       <c r="F11">
-        <v>49.56289000727821</v>
+        <v>26.58984282040767</v>
       </c>
       <c r="G11">
-        <v>79.02905150948331</v>
+        <v>33.41393175969338</v>
       </c>
       <c r="H11">
-        <v>19.41516096562966</v>
+        <v>14.68032469790476</v>
       </c>
       <c r="I11">
-        <v>37.61215749270743</v>
+        <v>22.03763131069893</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>22.81336282678835</v>
+        <v>10.58658467186598</v>
       </c>
       <c r="M11">
-        <v>149.8483731715373</v>
+        <v>73.54199597523962</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -894,25 +894,25 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>13.72964301519674</v>
+        <v>8.630536209464397</v>
       </c>
       <c r="D12">
-        <v>8.972763867011238</v>
+        <v>4.740740348746761</v>
       </c>
       <c r="E12">
-        <v>34.72515324875761</v>
+        <v>14.91248806934514</v>
       </c>
       <c r="F12">
-        <v>54.56688523391665</v>
+        <v>26.54627070521997</v>
       </c>
       <c r="G12">
-        <v>87.66244065038762</v>
+        <v>33.36650551386546</v>
       </c>
       <c r="H12">
-        <v>21.56537205515737</v>
+        <v>14.6316822671976</v>
       </c>
       <c r="I12">
-        <v>42.15979689209484</v>
+        <v>21.93135145268167</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,10 +921,10 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>24.64280295036945</v>
+        <v>10.63951559126664</v>
       </c>
       <c r="M12">
-        <v>158.707576575153</v>
+        <v>74.36812039208836</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>13.40322338794638</v>
+        <v>8.62629658517281</v>
       </c>
       <c r="D13">
-        <v>8.64899943759063</v>
+        <v>4.746669433121654</v>
       </c>
       <c r="E13">
-        <v>33.8836874043192</v>
+        <v>14.89070906726062</v>
       </c>
       <c r="F13">
-        <v>53.01097499596005</v>
+        <v>26.55543471196807</v>
       </c>
       <c r="G13">
-        <v>84.96987002900451</v>
+        <v>33.37629884877116</v>
       </c>
       <c r="H13">
-        <v>20.89447127356592</v>
+        <v>14.64208909652708</v>
       </c>
       <c r="I13">
-        <v>40.73606807651478</v>
+        <v>21.95409390908066</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,10 +968,10 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>24.06492007925879</v>
+        <v>10.6281087049924</v>
       </c>
       <c r="M13">
-        <v>155.9763074638363</v>
+        <v>74.19097946660473</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -988,25 +988,25 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>12.7624183141905</v>
+        <v>8.61252387757866</v>
       </c>
       <c r="D14">
-        <v>8.008664251678155</v>
+        <v>4.76606520814518</v>
       </c>
       <c r="E14">
-        <v>32.21843220360797</v>
+        <v>14.81961198823064</v>
       </c>
       <c r="F14">
-        <v>49.85449412207723</v>
+        <v>26.58615929396134</v>
       </c>
       <c r="G14">
-        <v>79.53014232857301</v>
+        <v>33.40984107928497</v>
       </c>
       <c r="H14">
-        <v>19.53988034163377</v>
+        <v>14.67629176073431</v>
       </c>
       <c r="I14">
-        <v>37.87479873167959</v>
+        <v>22.02882168346342</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,10 +1015,10 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>22.9179341588008</v>
+        <v>10.59093600450882</v>
       </c>
       <c r="M14">
-        <v>150.3715322153049</v>
+        <v>73.61031312680805</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1035,25 +1035,25 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>12.48005732044214</v>
+        <v>8.604129034969169</v>
       </c>
       <c r="D15">
-        <v>7.725556827525767</v>
+        <v>4.777991566710711</v>
       </c>
       <c r="E15">
-        <v>31.47958168700692</v>
+        <v>14.77600978799218</v>
       </c>
       <c r="F15">
-        <v>48.42649158872523</v>
+        <v>26.60561943384128</v>
       </c>
       <c r="G15">
-        <v>77.07849604097548</v>
+        <v>33.43161041434498</v>
       </c>
       <c r="H15">
-        <v>18.92978577420637</v>
+        <v>14.69744350879609</v>
       </c>
       <c r="I15">
-        <v>36.59118226829057</v>
+        <v>22.07502171905356</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>22.40765101142782</v>
+        <v>10.56818853605738</v>
       </c>
       <c r="M15">
-        <v>147.7994242343753</v>
+        <v>73.25235470624031</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1082,25 +1082,25 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>11.35147155567106</v>
+        <v>8.556660527096289</v>
       </c>
       <c r="D16">
-        <v>6.59892026850484</v>
+        <v>4.84703934469294</v>
       </c>
       <c r="E16">
-        <v>28.50097205375903</v>
+        <v>14.52538690141111</v>
       </c>
       <c r="F16">
-        <v>42.5568464041144</v>
+        <v>26.7267857066903</v>
       </c>
       <c r="G16">
-        <v>67.05690161833019</v>
+        <v>33.57475127470885</v>
       </c>
       <c r="H16">
-        <v>16.43934688049369</v>
+        <v>14.82170443552283</v>
       </c>
       <c r="I16">
-        <v>31.37688688174924</v>
+        <v>22.34620316492775</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,10 +1109,10 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>20.3424063404978</v>
+        <v>10.43819462892768</v>
       </c>
       <c r="M16">
-        <v>136.9000876836405</v>
+        <v>71.1660314147687</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1129,25 +1129,25 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>10.83618869721426</v>
+        <v>8.528116050145487</v>
       </c>
       <c r="D17">
-        <v>6.092441326172174</v>
+        <v>4.890024399804674</v>
       </c>
       <c r="E17">
-        <v>27.13015103558525</v>
+        <v>14.37102950358765</v>
       </c>
       <c r="F17">
-        <v>39.82603664981171</v>
+        <v>26.80954367826582</v>
       </c>
       <c r="G17">
-        <v>62.42327805464634</v>
+        <v>33.67856985188855</v>
       </c>
       <c r="H17">
-        <v>15.29030729635779</v>
+        <v>14.90061091115118</v>
       </c>
       <c r="I17">
-        <v>28.98143060364074</v>
+        <v>22.51817499003436</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,10 +1156,10 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>19.38784747818215</v>
+        <v>10.35880135958185</v>
       </c>
       <c r="M17">
-        <v>131.6025985107737</v>
+        <v>69.8549011262899</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1176,25 +1176,25 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>10.57027279429923</v>
+        <v>8.51191194581155</v>
       </c>
       <c r="D18">
-        <v>5.834230613552341</v>
+        <v>4.914978391280389</v>
       </c>
       <c r="E18">
-        <v>26.42063550834633</v>
+        <v>14.28205101228759</v>
       </c>
       <c r="F18">
-        <v>38.4132643607197</v>
+        <v>26.86016820978256</v>
       </c>
       <c r="G18">
-        <v>60.03309506038443</v>
+        <v>33.74400470576393</v>
       </c>
       <c r="H18">
-        <v>14.69839309272815</v>
+        <v>14.94696239540763</v>
       </c>
       <c r="I18">
-        <v>27.74909880882523</v>
+        <v>22.61910288284367</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>18.89283042843312</v>
+        <v>10.31327867175766</v>
       </c>
       <c r="M18">
-        <v>128.7926182390612</v>
+        <v>69.08929752487192</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1223,25 +1223,25 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>10.48406641008041</v>
+        <v>8.506462470475784</v>
       </c>
       <c r="D19">
-        <v>5.751059250891399</v>
+        <v>4.923466906320691</v>
       </c>
       <c r="E19">
-        <v>26.19034501921901</v>
+        <v>14.25189341767137</v>
       </c>
       <c r="F19">
-        <v>37.95535850967038</v>
+        <v>26.87782139536422</v>
       </c>
       <c r="G19">
-        <v>59.25941812698966</v>
+        <v>33.76712706079969</v>
       </c>
       <c r="H19">
-        <v>14.50693078901925</v>
+        <v>14.962820649518</v>
       </c>
       <c r="I19">
-        <v>27.35066242268727</v>
+        <v>22.65361691768747</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,10 +1250,10 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>18.73202444954776</v>
+        <v>10.29789107693124</v>
       </c>
       <c r="M19">
-        <v>127.8707241209686</v>
+        <v>68.82810702219818</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1270,25 +1270,25 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>10.8875009248689</v>
+        <v>8.531132569220031</v>
       </c>
       <c r="D20">
-        <v>6.142536437282902</v>
+        <v>4.885424749359954</v>
       </c>
       <c r="E20">
-        <v>27.26690746125826</v>
+        <v>14.38748205170868</v>
       </c>
       <c r="F20">
-        <v>40.09854982410869</v>
+        <v>26.80041931559613</v>
       </c>
       <c r="G20">
-        <v>62.88487522766093</v>
+        <v>33.66692241916407</v>
       </c>
       <c r="H20">
-        <v>15.40468642991081</v>
+        <v>14.89211077013988</v>
       </c>
       <c r="I20">
-        <v>29.21967353146686</v>
+        <v>22.49965878137792</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>19.48318649579329</v>
+        <v>10.36723846824701</v>
       </c>
       <c r="M20">
-        <v>132.1389105752926</v>
+        <v>69.99566107514561</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1317,25 +1317,25 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>12.91884644636071</v>
+        <v>8.616560653449676</v>
       </c>
       <c r="D21">
-        <v>8.165363068293273</v>
+        <v>4.760358634150428</v>
       </c>
       <c r="E21">
-        <v>32.62647375569821</v>
+        <v>14.84050614543429</v>
       </c>
       <c r="F21">
-        <v>50.63644272856283</v>
+        <v>26.57700086803239</v>
       </c>
       <c r="G21">
-        <v>80.87501424872322</v>
+        <v>33.39973301118179</v>
       </c>
       <c r="H21">
-        <v>19.87466727959817</v>
+        <v>14.66620348860368</v>
       </c>
       <c r="I21">
-        <v>38.58044403151558</v>
+        <v>22.00678302337701</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>23.19938698026658</v>
+        <v>10.60185003137328</v>
       </c>
       <c r="M21">
-        <v>151.7695122465163</v>
+        <v>73.78134475998563</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1364,25 +1364,25 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>12.91884644636071</v>
+        <v>8.674249227320324</v>
       </c>
       <c r="D22">
-        <v>8.165363068293273</v>
+        <v>4.680674061023824</v>
       </c>
       <c r="E22">
-        <v>32.62647375569821</v>
+        <v>15.13427507826838</v>
       </c>
       <c r="F22">
-        <v>50.63644272856283</v>
+        <v>26.45945376938913</v>
       </c>
       <c r="G22">
-        <v>80.87501424872322</v>
+        <v>33.27944890888703</v>
       </c>
       <c r="H22">
-        <v>19.87466727959817</v>
+        <v>14.52753796871228</v>
       </c>
       <c r="I22">
-        <v>38.58044403151558</v>
+        <v>21.70364594954614</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>23.19938698026658</v>
+        <v>10.75619423674647</v>
       </c>
       <c r="M22">
-        <v>151.7695122465163</v>
+        <v>76.15330611730649</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1411,25 +1411,25 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>12.91884644636071</v>
+        <v>8.643292255040732</v>
       </c>
       <c r="D23">
-        <v>8.165363068293273</v>
+        <v>4.723014970144805</v>
       </c>
       <c r="E23">
-        <v>32.62647375569821</v>
+        <v>14.97772180568416</v>
       </c>
       <c r="F23">
-        <v>50.63644272856283</v>
+        <v>26.51951134809989</v>
       </c>
       <c r="G23">
-        <v>80.87501424872322</v>
+        <v>33.3385132014551</v>
       </c>
       <c r="H23">
-        <v>19.87466727959817</v>
+        <v>14.60070614580684</v>
       </c>
       <c r="I23">
-        <v>38.58044403151558</v>
+        <v>21.86364492679881</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,10 +1438,10 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>23.19938698026658</v>
+        <v>10.67373713581614</v>
       </c>
       <c r="M23">
-        <v>151.7695122465163</v>
+        <v>74.89669163653524</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1458,25 +1458,25 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>18.4929339301211</v>
+        <v>8.52976815722068</v>
       </c>
       <c r="D24">
-        <v>13.18825898095275</v>
+        <v>4.887503499721755</v>
       </c>
       <c r="E24">
-        <v>46.35703716376997</v>
+        <v>14.38004458447881</v>
       </c>
       <c r="F24">
-        <v>71.81040725127396</v>
+        <v>26.80453496980931</v>
       </c>
       <c r="G24">
-        <v>118.3170287899208</v>
+        <v>33.67217035723993</v>
       </c>
       <c r="H24">
-        <v>29.21503237674141</v>
+        <v>14.89595061330353</v>
       </c>
       <c r="I24">
-        <v>58.98544894725818</v>
+        <v>22.50802355722864</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,10 +1485,10 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>32.50561580101096</v>
+        <v>10.36342366990584</v>
       </c>
       <c r="M24">
-        <v>190.1976685799971</v>
+        <v>69.93206030973028</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1505,25 +1505,25 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>20.89914629547387</v>
+        <v>8.415519494163556</v>
       </c>
       <c r="D25">
-        <v>14.82240404248621</v>
+        <v>5.073733961296958</v>
       </c>
       <c r="E25">
-        <v>51.7887581140235</v>
+        <v>13.72826339107283</v>
       </c>
       <c r="F25">
-        <v>76.19988932255198</v>
+        <v>27.22670774926138</v>
       </c>
       <c r="G25">
-        <v>126.8368467585022</v>
+        <v>34.24871423278877</v>
       </c>
       <c r="H25">
-        <v>31.34226781555627</v>
+        <v>15.2511898234007</v>
       </c>
       <c r="I25">
-        <v>64.23040364257312</v>
+        <v>23.27961238270911</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,10 +1532,10 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>36.10224714301147</v>
+        <v>10.03430466887824</v>
       </c>
       <c r="M25">
-        <v>201.9483090231922</v>
+        <v>64.13848133436339</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_244/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_244/res_line/loading_percent.xlsx
@@ -424,25 +424,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>8.338680776672632</v>
+        <v>8.168343400725414</v>
       </c>
       <c r="D2">
-        <v>5.218470269711807</v>
+        <v>3.650081356059402</v>
       </c>
       <c r="E2">
-        <v>13.24567078061751</v>
+        <v>19.96021482709373</v>
       </c>
       <c r="F2">
-        <v>27.62804914065313</v>
+        <v>26.02649851461363</v>
       </c>
       <c r="G2">
-        <v>34.84086742476234</v>
+        <v>39.30119612013061</v>
       </c>
       <c r="H2">
-        <v>15.54262918657586</v>
+        <v>9.606835508697305</v>
       </c>
       <c r="I2">
-        <v>23.90876985758839</v>
+        <v>17.13864167801801</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,10 +451,10 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>9.798203811002125</v>
+        <v>14.3574186130521</v>
       </c>
       <c r="M2">
-        <v>59.49720345784911</v>
+        <v>101.3631781859014</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -471,25 +471,25 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>8.291255343840522</v>
+        <v>7.51853810657955</v>
       </c>
       <c r="D3">
-        <v>5.321346513211649</v>
+        <v>3.117134431496718</v>
       </c>
       <c r="E3">
-        <v>12.91890434566484</v>
+        <v>18.19309408585319</v>
       </c>
       <c r="F3">
-        <v>27.95247333358189</v>
+        <v>22.95853740676066</v>
       </c>
       <c r="G3">
-        <v>35.33738637258423</v>
+        <v>34.25123300385604</v>
       </c>
       <c r="H3">
-        <v>15.75799061344303</v>
+        <v>8.390319962129285</v>
       </c>
       <c r="I3">
-        <v>24.37116412154704</v>
+        <v>14.57519240893853</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>9.642830058159744</v>
+        <v>13.10791335970468</v>
       </c>
       <c r="M3">
-        <v>56.11990664958039</v>
+        <v>93.33806266503231</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -518,25 +518,25 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>8.264461894601629</v>
+        <v>7.126530050458217</v>
       </c>
       <c r="D4">
-        <v>5.386888881226631</v>
+        <v>2.809288136742953</v>
       </c>
       <c r="E4">
-        <v>12.719136007257</v>
+        <v>17.12007951362293</v>
       </c>
       <c r="F4">
-        <v>28.17623514624267</v>
+        <v>21.20803621965027</v>
       </c>
       <c r="G4">
-        <v>35.68616849880728</v>
+        <v>31.3969678017134</v>
       </c>
       <c r="H4">
-        <v>15.89878886335917</v>
+        <v>7.718283554518293</v>
       </c>
       <c r="I4">
-        <v>24.67223097884669</v>
+        <v>13.13309215577794</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,10 +545,10 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>9.549971847505226</v>
+        <v>12.34707091556827</v>
       </c>
       <c r="M4">
-        <v>53.93329370532977</v>
+        <v>88.35667393741113</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -565,25 +565,25 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>8.254133057862607</v>
+        <v>7.000944831908031</v>
       </c>
       <c r="D5">
-        <v>5.414197553285003</v>
+        <v>2.687296911732641</v>
       </c>
       <c r="E5">
-        <v>12.63806245967591</v>
+        <v>16.68240802054073</v>
       </c>
       <c r="F5">
-        <v>28.273408250555</v>
+        <v>20.52286911203341</v>
       </c>
       <c r="G5">
-        <v>35.83890097609485</v>
+        <v>30.28719858272947</v>
       </c>
       <c r="H5">
-        <v>15.95828536751692</v>
+        <v>7.642685507038818</v>
       </c>
       <c r="I5">
-        <v>24.79914838591204</v>
+        <v>12.57461720153696</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,10 +592,10 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>9.512809553990332</v>
+        <v>12.03622345417273</v>
       </c>
       <c r="M5">
-        <v>53.0141374030155</v>
+        <v>86.30211540922083</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -612,25 +612,25 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>8.252453710482213</v>
+        <v>6.983180143936504</v>
       </c>
       <c r="D6">
-        <v>5.418768421224114</v>
+        <v>2.667216360802522</v>
       </c>
       <c r="E6">
-        <v>12.62462386967004</v>
+        <v>16.60962820490905</v>
       </c>
       <c r="F6">
-        <v>28.28990004140089</v>
+        <v>20.41068897644283</v>
       </c>
       <c r="G6">
-        <v>35.86488966937095</v>
+        <v>30.10597522942719</v>
       </c>
       <c r="H6">
-        <v>15.96829181511723</v>
+        <v>7.631623704900104</v>
       </c>
       <c r="I6">
-        <v>24.82047610748661</v>
+        <v>12.4835782719921</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,10 +639,10 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>9.506680870410172</v>
+        <v>11.98450290154437</v>
       </c>
       <c r="M6">
-        <v>52.8598261499986</v>
+        <v>85.95921101553236</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>8.26432020256448</v>
+        <v>7.124382255239066</v>
       </c>
       <c r="D7">
-        <v>5.387254744605055</v>
+        <v>2.807630453815504</v>
       </c>
       <c r="E7">
-        <v>12.7180411142318</v>
+        <v>17.1141823179849</v>
       </c>
       <c r="F7">
-        <v>28.17752165524932</v>
+        <v>21.19868699691762</v>
       </c>
       <c r="G7">
-        <v>35.68818595479057</v>
+        <v>31.38179317204858</v>
       </c>
       <c r="H7">
-        <v>15.89958271300986</v>
+        <v>7.71716162438385</v>
       </c>
       <c r="I7">
-        <v>24.67392560865132</v>
+        <v>13.12544553245675</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,10 +686,10 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>9.54946786682463</v>
+        <v>12.34288457730488</v>
       </c>
       <c r="M7">
-        <v>53.92101092238529</v>
+        <v>88.32907720127132</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>8.321848774512596</v>
+        <v>7.941968091555546</v>
       </c>
       <c r="D8">
-        <v>5.25345012256606</v>
+        <v>3.461275383255912</v>
       </c>
       <c r="E8">
-        <v>13.13288952245017</v>
+        <v>19.34594954085433</v>
       </c>
       <c r="F8">
-        <v>27.73469741540586</v>
+        <v>24.93691196495064</v>
       </c>
       <c r="G8">
-        <v>35.00268220307039</v>
+        <v>37.50205218268503</v>
       </c>
       <c r="H8">
-        <v>15.61508709806954</v>
+        <v>9.171560498405842</v>
       </c>
       <c r="I8">
-        <v>24.06459050756882</v>
+        <v>16.22408822424019</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,10 +733,10 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>9.74412691587964</v>
+        <v>13.92354902755017</v>
       </c>
       <c r="M8">
-        <v>58.35630826692699</v>
+        <v>98.59941187625216</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -753,25 +753,25 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>8.4528879681798</v>
+        <v>9.696244007660587</v>
       </c>
       <c r="D9">
-        <v>5.009822844477774</v>
+        <v>5.005201008748149</v>
       </c>
       <c r="E9">
-        <v>13.94847913057338</v>
+        <v>24.08018759484563</v>
       </c>
       <c r="F9">
-        <v>27.06989733724298</v>
+        <v>33.79123669277471</v>
       </c>
       <c r="G9">
-        <v>34.02720721065016</v>
+        <v>52.24725204655812</v>
       </c>
       <c r="H9">
-        <v>15.12677457779945</v>
+        <v>12.77528920412992</v>
       </c>
       <c r="I9">
-        <v>23.00992177172587</v>
+        <v>23.74888567986915</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,10 +780,10 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>10.14429895073718</v>
+        <v>17.25553115936562</v>
       </c>
       <c r="M9">
-        <v>66.1485758021221</v>
+        <v>119.203403524027</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -800,25 +800,25 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>8.559946473421203</v>
+        <v>11.41593710200258</v>
       </c>
       <c r="D10">
-        <v>4.842165638203094</v>
+        <v>6.662759302870206</v>
       </c>
       <c r="E10">
-        <v>14.54297155420957</v>
+        <v>28.67205348167258</v>
       </c>
       <c r="F10">
-        <v>26.71775748852273</v>
+        <v>42.89713212685473</v>
       </c>
       <c r="G10">
-        <v>33.563691794396</v>
+        <v>67.63555315903152</v>
       </c>
       <c r="H10">
-        <v>14.81283284822952</v>
+        <v>16.58296582039155</v>
       </c>
       <c r="I10">
-        <v>22.32685632121979</v>
+        <v>31.67666817767932</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,10 +827,10 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>10.44727233331916</v>
+        <v>20.46136268948248</v>
       </c>
       <c r="M10">
-        <v>71.31408504220791</v>
+        <v>137.5489125037099</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -847,25 +847,25 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>8.610916070264178</v>
+        <v>12.70442605960772</v>
       </c>
       <c r="D11">
-        <v>4.76834317184181</v>
+        <v>7.950536585686765</v>
       </c>
       <c r="E11">
-        <v>14.81127701971433</v>
+        <v>32.06692282981157</v>
       </c>
       <c r="F11">
-        <v>26.58984282040767</v>
+        <v>49.5628900072781</v>
       </c>
       <c r="G11">
-        <v>33.41393175969338</v>
+        <v>79.02905150948308</v>
       </c>
       <c r="H11">
-        <v>14.68032469790476</v>
+        <v>19.41516096562966</v>
       </c>
       <c r="I11">
-        <v>22.03763131069893</v>
+        <v>37.61215749270738</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>10.58658467186598</v>
+        <v>22.81336282678834</v>
       </c>
       <c r="M11">
-        <v>73.54199597523962</v>
+        <v>149.8483731715373</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -894,25 +894,25 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>8.630536209464397</v>
+        <v>13.7296430151968</v>
       </c>
       <c r="D12">
-        <v>4.740740348746761</v>
+        <v>8.97276386701124</v>
       </c>
       <c r="E12">
-        <v>14.91248806934514</v>
+        <v>34.72515324875766</v>
       </c>
       <c r="F12">
-        <v>26.54627070521997</v>
+        <v>54.56688523391645</v>
       </c>
       <c r="G12">
-        <v>33.36650551386546</v>
+        <v>87.66244065038713</v>
       </c>
       <c r="H12">
-        <v>14.6316822671976</v>
+        <v>21.56537205515736</v>
       </c>
       <c r="I12">
-        <v>21.93135145268167</v>
+        <v>42.15979689209474</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,10 +921,10 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>10.63951559126664</v>
+        <v>24.64280295036949</v>
       </c>
       <c r="M12">
-        <v>74.36812039208836</v>
+        <v>158.7075765751531</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>8.62629658517281</v>
+        <v>13.40322338794654</v>
       </c>
       <c r="D13">
-        <v>4.746669433121654</v>
+        <v>8.648999437590495</v>
       </c>
       <c r="E13">
-        <v>14.89070906726062</v>
+        <v>33.88368740431929</v>
       </c>
       <c r="F13">
-        <v>26.55543471196807</v>
+        <v>53.01097499596013</v>
       </c>
       <c r="G13">
-        <v>33.37629884877116</v>
+        <v>84.96987002900455</v>
       </c>
       <c r="H13">
-        <v>14.64208909652708</v>
+        <v>20.89447127356594</v>
       </c>
       <c r="I13">
-        <v>21.95409390908066</v>
+        <v>40.73606807651484</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,10 +968,10 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>10.6281087049924</v>
+        <v>24.06492007925881</v>
       </c>
       <c r="M13">
-        <v>74.19097946660473</v>
+        <v>155.9763074638362</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -988,25 +988,25 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>8.61252387757866</v>
+        <v>12.76241831419048</v>
       </c>
       <c r="D14">
-        <v>4.76606520814518</v>
+        <v>8.00866425167829</v>
       </c>
       <c r="E14">
-        <v>14.81961198823064</v>
+        <v>32.21843220360796</v>
       </c>
       <c r="F14">
-        <v>26.58615929396134</v>
+        <v>49.85449412207746</v>
       </c>
       <c r="G14">
-        <v>33.40984107928497</v>
+        <v>79.53014232857346</v>
       </c>
       <c r="H14">
-        <v>14.67629176073431</v>
+        <v>19.53988034163394</v>
       </c>
       <c r="I14">
-        <v>22.02882168346342</v>
+        <v>37.87479873167981</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,10 +1015,10 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>10.59093600450882</v>
+        <v>22.91793415880081</v>
       </c>
       <c r="M14">
-        <v>73.61031312680805</v>
+        <v>150.3715322153048</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1035,25 +1035,25 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>8.604129034969169</v>
+        <v>12.48005732044208</v>
       </c>
       <c r="D15">
-        <v>4.777991566710711</v>
+        <v>7.725556827525894</v>
       </c>
       <c r="E15">
-        <v>14.77600978799218</v>
+        <v>31.47958168700698</v>
       </c>
       <c r="F15">
-        <v>26.60561943384128</v>
+        <v>48.42649158872552</v>
       </c>
       <c r="G15">
-        <v>33.43161041434498</v>
+        <v>77.07849604097584</v>
       </c>
       <c r="H15">
-        <v>14.69744350879609</v>
+        <v>18.92978577420654</v>
       </c>
       <c r="I15">
-        <v>22.07502171905356</v>
+        <v>36.59118226829078</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>10.56818853605738</v>
+        <v>22.40765101142787</v>
       </c>
       <c r="M15">
-        <v>73.25235470624031</v>
+        <v>147.7994242343756</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1082,25 +1082,25 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>8.556660527096289</v>
+        <v>11.35147155567121</v>
       </c>
       <c r="D16">
-        <v>4.84703934469294</v>
+        <v>6.598920268504832</v>
       </c>
       <c r="E16">
-        <v>14.52538690141111</v>
+        <v>28.50097205375913</v>
       </c>
       <c r="F16">
-        <v>26.7267857066903</v>
+        <v>42.55684640411467</v>
       </c>
       <c r="G16">
-        <v>33.57475127470885</v>
+        <v>67.05690161833085</v>
       </c>
       <c r="H16">
-        <v>14.82170443552283</v>
+        <v>16.43934688049375</v>
       </c>
       <c r="I16">
-        <v>22.34620316492775</v>
+        <v>31.37688688174951</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,10 +1109,10 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>10.43819462892768</v>
+        <v>20.34240634049787</v>
       </c>
       <c r="M16">
-        <v>71.1660314147687</v>
+        <v>136.9000876836408</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1129,25 +1129,25 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>8.528116050145487</v>
+        <v>10.8361886972142</v>
       </c>
       <c r="D17">
-        <v>4.890024399804674</v>
+        <v>6.092441326172186</v>
       </c>
       <c r="E17">
-        <v>14.37102950358765</v>
+        <v>27.1301510355853</v>
       </c>
       <c r="F17">
-        <v>26.80954367826582</v>
+        <v>39.82603664981178</v>
       </c>
       <c r="G17">
-        <v>33.67856985188855</v>
+        <v>62.42327805464645</v>
       </c>
       <c r="H17">
-        <v>14.90061091115118</v>
+        <v>15.29030729635782</v>
       </c>
       <c r="I17">
-        <v>22.51817499003436</v>
+        <v>28.98143060364082</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,10 +1156,10 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>10.35880135958185</v>
+        <v>19.3878474781822</v>
       </c>
       <c r="M17">
-        <v>69.8549011262899</v>
+        <v>131.6025985107738</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1176,25 +1176,25 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>8.51191194581155</v>
+        <v>10.57027279429906</v>
       </c>
       <c r="D18">
-        <v>4.914978391280389</v>
+        <v>5.834230613552471</v>
       </c>
       <c r="E18">
-        <v>14.28205101228759</v>
+        <v>26.42063550834624</v>
       </c>
       <c r="F18">
-        <v>26.86016820978256</v>
+        <v>38.41326436071965</v>
       </c>
       <c r="G18">
-        <v>33.74400470576393</v>
+        <v>60.03309506038455</v>
       </c>
       <c r="H18">
-        <v>14.94696239540763</v>
+        <v>14.69839309272811</v>
       </c>
       <c r="I18">
-        <v>22.61910288284367</v>
+        <v>27.74909880882521</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>10.31327867175766</v>
+        <v>18.89283042843309</v>
       </c>
       <c r="M18">
-        <v>69.08929752487192</v>
+        <v>128.7926182390611</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1223,25 +1223,25 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>8.506462470475784</v>
+        <v>10.48406641008047</v>
       </c>
       <c r="D19">
-        <v>4.923466906320691</v>
+        <v>5.751059250891346</v>
       </c>
       <c r="E19">
-        <v>14.25189341767137</v>
+        <v>26.19034501921905</v>
       </c>
       <c r="F19">
-        <v>26.87782139536422</v>
+        <v>37.95535850967045</v>
       </c>
       <c r="G19">
-        <v>33.76712706079969</v>
+        <v>59.25941812698971</v>
       </c>
       <c r="H19">
-        <v>14.962820649518</v>
+        <v>14.50693078901924</v>
       </c>
       <c r="I19">
-        <v>22.65361691768747</v>
+        <v>27.35066242268731</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,10 +1250,10 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>10.29789107693124</v>
+        <v>18.73202444954778</v>
       </c>
       <c r="M19">
-        <v>68.82810702219818</v>
+        <v>127.8707241209688</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1270,25 +1270,25 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>8.531132569220031</v>
+        <v>10.88750092486878</v>
       </c>
       <c r="D20">
-        <v>4.885424749359954</v>
+        <v>6.142536437282777</v>
       </c>
       <c r="E20">
-        <v>14.38748205170868</v>
+        <v>27.26690746125833</v>
       </c>
       <c r="F20">
-        <v>26.80041931559613</v>
+        <v>40.09854982410896</v>
       </c>
       <c r="G20">
-        <v>33.66692241916407</v>
+        <v>62.88487522766128</v>
       </c>
       <c r="H20">
-        <v>14.89211077013988</v>
+        <v>15.4046864299109</v>
       </c>
       <c r="I20">
-        <v>22.49965878137792</v>
+        <v>29.219673531467</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>10.36723846824701</v>
+        <v>19.48318649579335</v>
       </c>
       <c r="M20">
-        <v>69.99566107514561</v>
+        <v>132.1389105752927</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1317,25 +1317,25 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>8.616560653449676</v>
+        <v>12.9188464463602</v>
       </c>
       <c r="D21">
-        <v>4.760358634150428</v>
+        <v>8.165363068293013</v>
       </c>
       <c r="E21">
-        <v>14.84050614543429</v>
+        <v>32.6264737556976</v>
       </c>
       <c r="F21">
-        <v>26.57700086803239</v>
+        <v>50.63644272856146</v>
       </c>
       <c r="G21">
-        <v>33.39973301118179</v>
+        <v>80.87501424872103</v>
       </c>
       <c r="H21">
-        <v>14.66620348860368</v>
+        <v>19.87466727959752</v>
       </c>
       <c r="I21">
-        <v>22.00678302337701</v>
+        <v>38.58044403151427</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>10.60185003137328</v>
+        <v>23.19938698026628</v>
       </c>
       <c r="M21">
-        <v>73.78134475998563</v>
+        <v>151.7695122465145</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1364,25 +1364,25 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>8.674249227320324</v>
+        <v>12.9188464463602</v>
       </c>
       <c r="D22">
-        <v>4.680674061023824</v>
+        <v>8.165363068293013</v>
       </c>
       <c r="E22">
-        <v>15.13427507826838</v>
+        <v>32.6264737556976</v>
       </c>
       <c r="F22">
-        <v>26.45945376938913</v>
+        <v>50.63644272856146</v>
       </c>
       <c r="G22">
-        <v>33.27944890888703</v>
+        <v>80.87501424872103</v>
       </c>
       <c r="H22">
-        <v>14.52753796871228</v>
+        <v>19.87466727959752</v>
       </c>
       <c r="I22">
-        <v>21.70364594954614</v>
+        <v>38.58044403151427</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>10.75619423674647</v>
+        <v>23.19938698026628</v>
       </c>
       <c r="M22">
-        <v>76.15330611730649</v>
+        <v>151.7695122465145</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1411,25 +1411,25 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>8.643292255040732</v>
+        <v>12.9188464463602</v>
       </c>
       <c r="D23">
-        <v>4.723014970144805</v>
+        <v>8.165363068293013</v>
       </c>
       <c r="E23">
-        <v>14.97772180568416</v>
+        <v>32.6264737556976</v>
       </c>
       <c r="F23">
-        <v>26.51951134809989</v>
+        <v>50.63644272856146</v>
       </c>
       <c r="G23">
-        <v>33.3385132014551</v>
+        <v>80.87501424872103</v>
       </c>
       <c r="H23">
-        <v>14.60070614580684</v>
+        <v>19.87466727959752</v>
       </c>
       <c r="I23">
-        <v>21.86364492679881</v>
+        <v>38.58044403151427</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,10 +1438,10 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>10.67373713581614</v>
+        <v>23.19938698026628</v>
       </c>
       <c r="M23">
-        <v>74.89669163653524</v>
+        <v>151.7695122465145</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1458,25 +1458,25 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>8.52976815722068</v>
+        <v>18.49293393012111</v>
       </c>
       <c r="D24">
-        <v>4.887503499721755</v>
+        <v>13.18825898095275</v>
       </c>
       <c r="E24">
-        <v>14.38004458447881</v>
+        <v>46.3570371637699</v>
       </c>
       <c r="F24">
-        <v>26.80453496980931</v>
+        <v>71.81040725127407</v>
       </c>
       <c r="G24">
-        <v>33.67217035723993</v>
+        <v>118.3170287899209</v>
       </c>
       <c r="H24">
-        <v>14.89595061330353</v>
+        <v>29.21503237674147</v>
       </c>
       <c r="I24">
-        <v>22.50802355722864</v>
+        <v>58.98544894725823</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,10 +1485,10 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>10.36342366990584</v>
+        <v>32.50561580101095</v>
       </c>
       <c r="M24">
-        <v>69.93206030973028</v>
+        <v>190.1976685799968</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1505,25 +1505,25 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>8.415519494163556</v>
+        <v>20.89914629547361</v>
       </c>
       <c r="D25">
-        <v>5.073733961296958</v>
+        <v>14.82240404248627</v>
       </c>
       <c r="E25">
-        <v>13.72826339107283</v>
+        <v>51.78875811402334</v>
       </c>
       <c r="F25">
-        <v>27.22670774926138</v>
+        <v>76.199889322552</v>
       </c>
       <c r="G25">
-        <v>34.24871423278877</v>
+        <v>126.8368467585023</v>
       </c>
       <c r="H25">
-        <v>15.2511898234007</v>
+        <v>31.34226781555627</v>
       </c>
       <c r="I25">
-        <v>23.27961238270911</v>
+        <v>64.23040364257312</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,10 +1532,10 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>10.03430466887824</v>
+        <v>36.10224714301144</v>
       </c>
       <c r="M25">
-        <v>64.13848133436339</v>
+        <v>201.9483090231921</v>
       </c>
       <c r="N25">
         <v>0</v>
